--- a/Acxiom June'21 (week 2) report (1).xlsx
+++ b/Acxiom June'21 (week 2) report (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isha.sharma\Desktop\AM sheets\Acxiom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D615E-AFC6-4565-8551-8B11C1F7FA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Report" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Client Report'!$A$1:$G$67</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -445,7 +446,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,9 +609,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,6 +661,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -818,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68:G68"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2843,7 +2878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3133,7 +3168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3354,7 +3389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
